--- a/Übersetzung.xlsx
+++ b/Übersetzung.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="355">
   <si>
     <t>Willkommen</t>
   </si>
@@ -790,6 +790,306 @@
   </si>
   <si>
     <t>Konstanten</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Anrede nicht angegeben</t>
+  </si>
+  <si>
+    <t>Form of address is missing</t>
+  </si>
+  <si>
+    <t>Vorname nicht angegeben</t>
+  </si>
+  <si>
+    <t>Nachname nicht angegeben</t>
+  </si>
+  <si>
+    <t>Email nicht angegeben</t>
+  </si>
+  <si>
+    <t>Fehler beim Prüfen der Emailadresse</t>
+  </si>
+  <si>
+    <t>Emailadresse wird bereits verwendet</t>
+  </si>
+  <si>
+    <t>Emailadresse nicht gültig</t>
+  </si>
+  <si>
+    <t>Geburtsdatum nicht angegeben</t>
+  </si>
+  <si>
+    <t>Geburtsdatum ist nicht im richtigen Format</t>
+  </si>
+  <si>
+    <t>Straße nicht angegeben</t>
+  </si>
+  <si>
+    <t>Haus-Nr. nicht angegeben</t>
+  </si>
+  <si>
+    <t>Haus-Nr nicht gültig</t>
+  </si>
+  <si>
+    <t>PLZ nicht angegeben</t>
+  </si>
+  <si>
+    <t>PLZ ist keine Zahl</t>
+  </si>
+  <si>
+    <t>PLZ ist nicht gültig</t>
+  </si>
+  <si>
+    <t>Ort nicht angegeben</t>
+  </si>
+  <si>
+    <t>Land nicht angegeben</t>
+  </si>
+  <si>
+    <t>Passwort nicht angegeben</t>
+  </si>
+  <si>
+    <t>Passwort braucht mindestens 6 Zeichen</t>
+  </si>
+  <si>
+    <t>Firstname is missing</t>
+  </si>
+  <si>
+    <t>Lastname is missing</t>
+  </si>
+  <si>
+    <t>E-Mail is missing</t>
+  </si>
+  <si>
+    <t>E-Mail is not valid</t>
+  </si>
+  <si>
+    <t>E-Mail is used already</t>
+  </si>
+  <si>
+    <t>Birthday is missing</t>
+  </si>
+  <si>
+    <t>Street is missing</t>
+  </si>
+  <si>
+    <t>House No. Is missing</t>
+  </si>
+  <si>
+    <t>House No. Is not valid</t>
+  </si>
+  <si>
+    <t>Zip Code is missing</t>
+  </si>
+  <si>
+    <t>Zip Code is not a number</t>
+  </si>
+  <si>
+    <t>Zip Code is not valid</t>
+  </si>
+  <si>
+    <t>City is missing</t>
+  </si>
+  <si>
+    <t>Country is missing</t>
+  </si>
+  <si>
+    <t>Password is missing</t>
+  </si>
+  <si>
+    <t>Password requiers at least 6 characters</t>
+  </si>
+  <si>
+    <t>Validating E-Mail failed</t>
+  </si>
+  <si>
+    <t>Fehler_Anrede</t>
+  </si>
+  <si>
+    <t>Fehler_Vorname</t>
+  </si>
+  <si>
+    <t>Fehler_Nachname</t>
+  </si>
+  <si>
+    <t>Fehler_Email</t>
+  </si>
+  <si>
+    <t>Fehler_Email2</t>
+  </si>
+  <si>
+    <t>Fehler_Email3</t>
+  </si>
+  <si>
+    <t>Fehler_Email4</t>
+  </si>
+  <si>
+    <t>Fehler_Geburtsdatum</t>
+  </si>
+  <si>
+    <t>Fehler_Geburtsdatum2</t>
+  </si>
+  <si>
+    <t>Fehler_Straße</t>
+  </si>
+  <si>
+    <t>Fehler_HausNr</t>
+  </si>
+  <si>
+    <t>Fehler_HausNr2</t>
+  </si>
+  <si>
+    <t>Fehler_PLZ</t>
+  </si>
+  <si>
+    <t>Fehler_PLZ2</t>
+  </si>
+  <si>
+    <t>Fehler_PLZ3</t>
+  </si>
+  <si>
+    <t>Fehler_Ort</t>
+  </si>
+  <si>
+    <t>Fehler_Land</t>
+  </si>
+  <si>
+    <t>Fehler_Passwort</t>
+  </si>
+  <si>
+    <t>Fehler_Passwort2</t>
+  </si>
+  <si>
+    <t>Fehler_Energieart</t>
+  </si>
+  <si>
+    <t>Energieart nicht angegeben</t>
+  </si>
+  <si>
+    <t>Energy kind is missing</t>
+  </si>
+  <si>
+    <t>Fehler_Energieart2</t>
+  </si>
+  <si>
+    <t>Energieart ist nicht gültig</t>
+  </si>
+  <si>
+    <t>Energy kind is not valid</t>
+  </si>
+  <si>
+    <t>Fehler_ZählerNr</t>
+  </si>
+  <si>
+    <t>Zähler-Nr. ist nicht angegeben</t>
+  </si>
+  <si>
+    <t>Meter-No. is missing</t>
+  </si>
+  <si>
+    <t>Fehler_Zuordnung</t>
+  </si>
+  <si>
+    <t>Zähler ist keiner Entnahmestelle zugeordnet</t>
+  </si>
+  <si>
+    <t>meter is not assigned to an property</t>
+  </si>
+  <si>
+    <t>Messwert nicht angegeben</t>
+  </si>
+  <si>
+    <t>Fehler_Messwert</t>
+  </si>
+  <si>
+    <t>Meter reading is missing</t>
+  </si>
+  <si>
+    <t>Ablesedatum nicht angegeben</t>
+  </si>
+  <si>
+    <t>Fehler_Ablesedatum</t>
+  </si>
+  <si>
+    <t>Date of reading is missing</t>
+  </si>
+  <si>
+    <t>Messwert ist keine gültige Zahl / im falschem Format</t>
+  </si>
+  <si>
+    <t>Fehler_Messwert2</t>
+  </si>
+  <si>
+    <t>Meter reading is not a number / not in a valid format</t>
+  </si>
+  <si>
+    <t>Ablesedatum ist nicht im richtigen Format</t>
+  </si>
+  <si>
+    <t>Date of reading is not in a valid dateformat</t>
+  </si>
+  <si>
+    <t>Birthday is not in a valid dateformat</t>
+  </si>
+  <si>
+    <t>Zum angegebene Datum ist bereits ein Messwert gepflegt</t>
+  </si>
+  <si>
+    <t>Fehler_Messwert3</t>
+  </si>
+  <si>
+    <t>Fehler_Ablesedatum2</t>
+  </si>
+  <si>
+    <t>There already exists a reading at the date specified</t>
+  </si>
+  <si>
+    <t>Der angegebene Messwert ist kleiner dem vorherigen</t>
+  </si>
+  <si>
+    <t>The reading is lower then the previous</t>
+  </si>
+  <si>
+    <t>Der angegebene Messwert ist größer dem nachfolgenden</t>
+  </si>
+  <si>
+    <t>The reading is greater then the next</t>
+  </si>
+  <si>
+    <t>Fehler_Messwert4</t>
+  </si>
+  <si>
+    <t>Fehler_Messwert5</t>
+  </si>
+  <si>
+    <t>Fehler_DatumVon</t>
+  </si>
+  <si>
+    <t>Datum von kein gültiges Datum</t>
+  </si>
+  <si>
+    <t>Date from is not a valid date</t>
+  </si>
+  <si>
+    <t>Fehler_DatumBis</t>
+  </si>
+  <si>
+    <t>Datum bis kein gültiges Datum</t>
+  </si>
+  <si>
+    <t>Date to is not a valid date</t>
+  </si>
+  <si>
+    <t>Fehler_DatumVonBis</t>
+  </si>
+  <si>
+    <t>Datum bis muss größer Datum von sein</t>
+  </si>
+  <si>
+    <t>Date to has to be greater then date from</t>
   </si>
 </sst>
 </file>
@@ -825,10 +1125,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -854,8 +1155,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A5:F68" totalsRowShown="0">
-  <autoFilter ref="A5:F68"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A5:F104" totalsRowShown="0">
+  <autoFilter ref="A5:F104"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Bezeichnung"/>
     <tableColumn id="3" name="DE"/>
@@ -1171,7 +1472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1232,7 +1533,7 @@
         <v>247</v>
       </c>
       <c r="D6" t="str">
-        <f>$A$2&amp;A6&amp;$B$2</f>
+        <f t="shared" ref="D6:D52" si="0">$A$2&amp;A6&amp;$B$2</f>
         <v>&lt;fmt:message key="i18n.Titel_Login"/&gt;</v>
       </c>
       <c r="E6" t="str">
@@ -1255,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="str">
-        <f>$A$2&amp;A7&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Titel_welcome"/&gt;</v>
       </c>
       <c r="E7" t="str">
@@ -1278,7 +1579,7 @@
         <v>146</v>
       </c>
       <c r="D8" t="str">
-        <f>$A$2&amp;A8&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Titel_Meine_Übersicht"/&gt;</v>
       </c>
       <c r="E8" t="str">
@@ -1301,7 +1602,7 @@
         <v>77</v>
       </c>
       <c r="D9" t="str">
-        <f>$A$2&amp;A9&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Titel_Registrierung"/&gt;</v>
       </c>
       <c r="E9" t="str">
@@ -1324,7 +1625,7 @@
         <v>85</v>
       </c>
       <c r="D10" t="str">
-        <f>$A$2&amp;A10&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Titel_Entnahmestelle"/&gt;</v>
       </c>
       <c r="E10" t="str">
@@ -1347,7 +1648,7 @@
         <v>88</v>
       </c>
       <c r="D11" t="str">
-        <f>$A$2&amp;A11&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Titel_Zähler"/&gt;</v>
       </c>
       <c r="E11" t="str">
@@ -1370,7 +1671,7 @@
         <v>68</v>
       </c>
       <c r="D12" t="str">
-        <f>$A$2&amp;A12&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Titel_Zählerstände"/&gt;</v>
       </c>
       <c r="E12" t="str">
@@ -1393,7 +1694,7 @@
         <v>67</v>
       </c>
       <c r="D13" t="str">
-        <f>$A$2&amp;A13&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Titel_Verbrauch"/&gt;</v>
       </c>
       <c r="E13" t="str">
@@ -1416,7 +1717,7 @@
         <v>253</v>
       </c>
       <c r="D14" t="str">
-        <f>$A$2&amp;A14&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Überschrift_Login"/&gt;</v>
       </c>
       <c r="E14" t="str">
@@ -1439,7 +1740,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="str">
-        <f>$A$2&amp;A15&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Überschrift_Meine_Daten"/&gt;</v>
       </c>
       <c r="E15" t="str">
@@ -1462,7 +1763,7 @@
         <v>72</v>
       </c>
       <c r="D16" t="str">
-        <f>$A$2&amp;A16&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Überschrift_Meine_Entnahmestellen"/&gt;</v>
       </c>
       <c r="E16" t="str">
@@ -1485,7 +1786,7 @@
         <v>99</v>
       </c>
       <c r="D17" t="str">
-        <f>$A$2&amp;A17&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Überschrift_Zählerstände1"/&gt;</v>
       </c>
       <c r="E17" t="str">
@@ -1508,7 +1809,7 @@
         <v>100</v>
       </c>
       <c r="D18" t="str">
-        <f>$A$2&amp;A18&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Überschrift_Zählerstände2"/&gt;</v>
       </c>
       <c r="E18" t="str">
@@ -1531,7 +1832,7 @@
         <v>101</v>
       </c>
       <c r="D19" t="str">
-        <f>$A$2&amp;A19&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Überschrift_Zählerstände3"/&gt;</v>
       </c>
       <c r="E19" t="str">
@@ -1554,7 +1855,7 @@
         <v>115</v>
       </c>
       <c r="D20" t="str">
-        <f>$A$2&amp;A20&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Überschrift_Verbrauch1"/&gt;</v>
       </c>
       <c r="E20" t="str">
@@ -1577,7 +1878,7 @@
         <v>100</v>
       </c>
       <c r="D21" t="str">
-        <f>$A$2&amp;A21&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Überschrift_Verbrauch2"/&gt;</v>
       </c>
       <c r="E21" t="str">
@@ -1600,7 +1901,7 @@
         <v>101</v>
       </c>
       <c r="D22" t="str">
-        <f>$A$2&amp;A22&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Überschrift_Verbrauch3"/&gt;</v>
       </c>
       <c r="E22" t="str">
@@ -1623,7 +1924,7 @@
         <v>39</v>
       </c>
       <c r="D23" t="str">
-        <f>$A$2&amp;A23&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Vorname"/&gt;</v>
       </c>
       <c r="E23" t="str">
@@ -1646,7 +1947,7 @@
         <v>40</v>
       </c>
       <c r="D24" t="str">
-        <f>$A$2&amp;A24&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Nachname"/&gt;</v>
       </c>
       <c r="E24" t="str">
@@ -1669,7 +1970,7 @@
         <v>41</v>
       </c>
       <c r="D25" t="str">
-        <f>$A$2&amp;A25&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Email"/&gt;</v>
       </c>
       <c r="E25" t="str">
@@ -1692,7 +1993,7 @@
         <v>42</v>
       </c>
       <c r="D26" t="str">
-        <f>$A$2&amp;A26&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Passwort"/&gt;</v>
       </c>
       <c r="E26" t="str">
@@ -1715,7 +2016,7 @@
         <v>43</v>
       </c>
       <c r="D27" t="str">
-        <f>$A$2&amp;A27&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Geburtsdatum"/&gt;</v>
       </c>
       <c r="E27" t="str">
@@ -1738,7 +2039,7 @@
         <v>44</v>
       </c>
       <c r="D28" t="str">
-        <f>$A$2&amp;A28&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Anrede"/&gt;</v>
       </c>
       <c r="E28" t="str">
@@ -1761,7 +2062,7 @@
         <v>45</v>
       </c>
       <c r="D29" t="str">
-        <f>$A$2&amp;A29&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Straße"/&gt;</v>
       </c>
       <c r="E29" t="str">
@@ -1784,7 +2085,7 @@
         <v>46</v>
       </c>
       <c r="D30" t="str">
-        <f>$A$2&amp;A30&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.HausNr"/&gt;</v>
       </c>
       <c r="E30" t="str">
@@ -1807,7 +2108,7 @@
         <v>50</v>
       </c>
       <c r="D31" t="str">
-        <f>$A$2&amp;A31&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.PLZ"/&gt;</v>
       </c>
       <c r="E31" t="str">
@@ -1830,7 +2131,7 @@
         <v>47</v>
       </c>
       <c r="D32" t="str">
-        <f>$A$2&amp;A32&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Ort"/&gt;</v>
       </c>
       <c r="E32" t="str">
@@ -1853,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="D33" t="str">
-        <f>$A$2&amp;A33&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Land"/&gt;</v>
       </c>
       <c r="E33" t="str">
@@ -1876,7 +2177,7 @@
         <v>49</v>
       </c>
       <c r="D34" t="str">
-        <f>$A$2&amp;A34&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Hinweis"/&gt;</v>
       </c>
       <c r="E34" t="str">
@@ -1899,7 +2200,7 @@
         <v>71</v>
       </c>
       <c r="D35" t="str">
-        <f>$A$2&amp;A35&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Entnahmestelle_ändern"/&gt;</v>
       </c>
       <c r="E35" t="str">
@@ -1922,7 +2223,7 @@
         <v>70</v>
       </c>
       <c r="D36" t="str">
-        <f>$A$2&amp;A36&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Entnahmestelle_hinzufügen"/&gt;</v>
       </c>
       <c r="E36" t="str">
@@ -1945,7 +2246,7 @@
         <v>69</v>
       </c>
       <c r="D37" t="str">
-        <f>$A$2&amp;A37&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Zähler_hinzufügen"/&gt;</v>
       </c>
       <c r="E37" t="str">
@@ -1968,7 +2269,7 @@
         <v>68</v>
       </c>
       <c r="D38" t="str">
-        <f>$A$2&amp;A38&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Zählerstände"/&gt;</v>
       </c>
       <c r="E38" t="str">
@@ -1991,7 +2292,7 @@
         <v>67</v>
       </c>
       <c r="D39" t="str">
-        <f>$A$2&amp;A39&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Verbrauch"/&gt;</v>
       </c>
       <c r="E39" t="str">
@@ -2014,7 +2315,7 @@
         <v>94</v>
       </c>
       <c r="D40" t="str">
-        <f>$A$2&amp;A40&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.ZählerNr"/&gt;</v>
       </c>
       <c r="E40" t="str">
@@ -2037,7 +2338,7 @@
         <v>91</v>
       </c>
       <c r="D41" t="str">
-        <f>$A$2&amp;A41&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Energie_Art"/&gt;</v>
       </c>
       <c r="E41" t="str">
@@ -2060,7 +2361,7 @@
         <v>106</v>
       </c>
       <c r="D42" t="str">
-        <f>$A$2&amp;A42&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Ablesedatum"/&gt;</v>
       </c>
       <c r="E42" t="str">
@@ -2083,7 +2384,7 @@
         <v>108</v>
       </c>
       <c r="D43" t="str">
-        <f>$A$2&amp;A43&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Zählerstand"/&gt;</v>
       </c>
       <c r="E43" t="str">
@@ -2106,7 +2407,7 @@
         <v>110</v>
       </c>
       <c r="D44" t="str">
-        <f>$A$2&amp;A44&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Zählerstand_Einheit_kWh"/&gt;</v>
       </c>
       <c r="E44" t="str">
@@ -2129,7 +2430,7 @@
         <v>111</v>
       </c>
       <c r="D45" t="str">
-        <f>$A$2&amp;A45&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Zählerstand_Einheit_m3"/&gt;</v>
       </c>
       <c r="E45" t="str">
@@ -2152,7 +2453,7 @@
         <v>137</v>
       </c>
       <c r="D46" t="str">
-        <f>$A$2&amp;A46&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Einheit"/&gt;</v>
       </c>
       <c r="E46" t="str">
@@ -2175,7 +2476,7 @@
         <v>136</v>
       </c>
       <c r="D47" t="str">
-        <f>$A$2&amp;A47&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Zeitraum"/&gt;</v>
       </c>
       <c r="E47" t="str">
@@ -2198,7 +2499,7 @@
         <v>120</v>
       </c>
       <c r="D48" t="str">
-        <f>$A$2&amp;A48&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Datum_Von"/&gt;</v>
       </c>
       <c r="E48" t="str">
@@ -2221,7 +2522,7 @@
         <v>121</v>
       </c>
       <c r="D49" t="str">
-        <f>$A$2&amp;A49&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.Datum_Bis"/&gt;</v>
       </c>
       <c r="E49" t="str">
@@ -2244,7 +2545,7 @@
         <v>130</v>
       </c>
       <c r="D50" t="str">
-        <f>$A$2&amp;A50&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.BMode"/&gt;</v>
       </c>
       <c r="E50" t="str">
@@ -2267,7 +2568,7 @@
         <v>131</v>
       </c>
       <c r="D51" t="str">
-        <f>$A$2&amp;A51&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.BMode_for_each"/&gt;</v>
       </c>
       <c r="E51" t="str">
@@ -2290,7 +2591,7 @@
         <v>132</v>
       </c>
       <c r="D52" t="str">
-        <f>$A$2&amp;A52&amp;$B$2</f>
+        <f t="shared" si="0"/>
         <v>&lt;fmt:message key="i18n.BMode_month"/&gt;</v>
       </c>
       <c r="E52" t="str">
@@ -2313,7 +2614,7 @@
         <v>133</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" ref="D53:D66" si="0">$A$2&amp;A53&amp;$B$2</f>
+        <f t="shared" ref="D53:D66" si="1">$A$2&amp;A53&amp;$B$2</f>
         <v>&lt;fmt:message key="i18n.BMode_year"/&gt;</v>
       </c>
       <c r="E53" t="str">
@@ -2382,7 +2683,7 @@
         <v>51</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>&lt;fmt:message key="i18n.ändern"/&gt;</v>
       </c>
       <c r="E56" t="str">
@@ -2405,7 +2706,7 @@
         <v>31</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>&lt;fmt:message key="i18n.speichern"/&gt;</v>
       </c>
       <c r="E57" t="str">
@@ -2428,7 +2729,7 @@
         <v>52</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>&lt;fmt:message key="i18n.löschen"/&gt;</v>
       </c>
       <c r="E58" t="str">
@@ -2451,7 +2752,7 @@
         <v>32</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>&lt;fmt:message key="i18n.anlegen"/&gt;</v>
       </c>
       <c r="E59" t="str">
@@ -2474,7 +2775,7 @@
         <v>53</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>&lt;fmt:message key="i18n.anzeigen"/&gt;</v>
       </c>
       <c r="E60" t="str">
@@ -2497,7 +2798,7 @@
         <v>54</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>&lt;fmt:message key="i18n.exportieren"/&gt;</v>
       </c>
       <c r="E61" t="str">
@@ -2520,7 +2821,7 @@
         <v>82</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>&lt;fmt:message key="i18n.benötigt"/&gt;</v>
       </c>
       <c r="E62" t="str">
@@ -2543,7 +2844,7 @@
         <v>55</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>&lt;fmt:message key="i18n.datepattern"/&gt;</v>
       </c>
       <c r="E63" t="str">
@@ -2566,7 +2867,7 @@
         <v>56</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>&lt;fmt:message key="i18n.datepatternpicker"/&gt;</v>
       </c>
       <c r="E64" t="str">
@@ -2589,7 +2890,7 @@
         <v>104</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>&lt;fmt:message key="i18n.datepickerregion"/&gt;</v>
       </c>
       <c r="E65" t="str">
@@ -2612,7 +2913,7 @@
         <v>141</v>
       </c>
       <c r="D66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>&lt;fmt:message key="i18n.decimalSymbol"/&gt;</v>
       </c>
       <c r="E66" t="str">
@@ -2668,6 +2969,786 @@
       <c r="F68" t="str">
         <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
         <v>i18n.Benutzer=Current User</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>255</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>255</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>255</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>293</v>
+      </c>
+      <c r="B72" t="s">
+        <v>256</v>
+      </c>
+      <c r="C72" t="s">
+        <v>257</v>
+      </c>
+      <c r="D72" t="str">
+        <f>"i18n."&amp;A72</f>
+        <v>i18n.Fehler_Anrede</v>
+      </c>
+      <c r="E72" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Fehler_Anrede=Anrede nicht angegeben</v>
+      </c>
+      <c r="F72" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Fehler_Anrede=Form of address is missing</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>294</v>
+      </c>
+      <c r="B73" t="s">
+        <v>258</v>
+      </c>
+      <c r="C73" t="s">
+        <v>276</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" ref="D73:D104" si="2">"i18n."&amp;A73</f>
+        <v>i18n.Fehler_Vorname</v>
+      </c>
+      <c r="E73" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Fehler_Vorname=Vorname nicht angegeben</v>
+      </c>
+      <c r="F73" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Fehler_Vorname=Firstname is missing</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>295</v>
+      </c>
+      <c r="B74" t="s">
+        <v>259</v>
+      </c>
+      <c r="C74" t="s">
+        <v>277</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="2"/>
+        <v>i18n.Fehler_Nachname</v>
+      </c>
+      <c r="E74" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Fehler_Nachname=Nachname nicht angegeben</v>
+      </c>
+      <c r="F74" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Fehler_Nachname=Lastname is missing</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>296</v>
+      </c>
+      <c r="B75" t="s">
+        <v>260</v>
+      </c>
+      <c r="C75" t="s">
+        <v>278</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="2"/>
+        <v>i18n.Fehler_Email</v>
+      </c>
+      <c r="E75" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Fehler_Email=Email nicht angegeben</v>
+      </c>
+      <c r="F75" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Fehler_Email=E-Mail is missing</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>297</v>
+      </c>
+      <c r="B76" t="s">
+        <v>263</v>
+      </c>
+      <c r="C76" t="s">
+        <v>279</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="2"/>
+        <v>i18n.Fehler_Email2</v>
+      </c>
+      <c r="E76" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Fehler_Email2=Emailadresse nicht gültig</v>
+      </c>
+      <c r="F76" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Fehler_Email2=E-Mail is not valid</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>298</v>
+      </c>
+      <c r="B77" t="s">
+        <v>262</v>
+      </c>
+      <c r="C77" t="s">
+        <v>280</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="2"/>
+        <v>i18n.Fehler_Email3</v>
+      </c>
+      <c r="E77" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Fehler_Email3=Emailadresse wird bereits verwendet</v>
+      </c>
+      <c r="F77" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Fehler_Email3=E-Mail is used already</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>299</v>
+      </c>
+      <c r="B78" t="s">
+        <v>261</v>
+      </c>
+      <c r="C78" t="s">
+        <v>292</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="2"/>
+        <v>i18n.Fehler_Email4</v>
+      </c>
+      <c r="E78" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Fehler_Email4=Fehler beim Prüfen der Emailadresse</v>
+      </c>
+      <c r="F78" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Fehler_Email4=Validating E-Mail failed</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>300</v>
+      </c>
+      <c r="B79" t="s">
+        <v>264</v>
+      </c>
+      <c r="C79" t="s">
+        <v>281</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="2"/>
+        <v>i18n.Fehler_Geburtsdatum</v>
+      </c>
+      <c r="E79" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Fehler_Geburtsdatum=Geburtsdatum nicht angegeben</v>
+      </c>
+      <c r="F79" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Fehler_Geburtsdatum=Birthday is missing</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>301</v>
+      </c>
+      <c r="B80" t="s">
+        <v>265</v>
+      </c>
+      <c r="C80" t="s">
+        <v>335</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="2"/>
+        <v>i18n.Fehler_Geburtsdatum2</v>
+      </c>
+      <c r="E80" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Fehler_Geburtsdatum2=Geburtsdatum ist nicht im richtigen Format</v>
+      </c>
+      <c r="F80" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Fehler_Geburtsdatum2=Birthday is not in a valid dateformat</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>302</v>
+      </c>
+      <c r="B81" t="s">
+        <v>266</v>
+      </c>
+      <c r="C81" t="s">
+        <v>282</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="2"/>
+        <v>i18n.Fehler_Straße</v>
+      </c>
+      <c r="E81" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Fehler_Straße=Straße nicht angegeben</v>
+      </c>
+      <c r="F81" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Fehler_Straße=Street is missing</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>303</v>
+      </c>
+      <c r="B82" t="s">
+        <v>267</v>
+      </c>
+      <c r="C82" t="s">
+        <v>283</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="2"/>
+        <v>i18n.Fehler_HausNr</v>
+      </c>
+      <c r="E82" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Fehler_HausNr=Haus-Nr. nicht angegeben</v>
+      </c>
+      <c r="F82" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Fehler_HausNr=House No. Is missing</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>304</v>
+      </c>
+      <c r="B83" t="s">
+        <v>268</v>
+      </c>
+      <c r="C83" t="s">
+        <v>284</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="2"/>
+        <v>i18n.Fehler_HausNr2</v>
+      </c>
+      <c r="E83" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Fehler_HausNr2=Haus-Nr nicht gültig</v>
+      </c>
+      <c r="F83" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Fehler_HausNr2=House No. Is not valid</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>305</v>
+      </c>
+      <c r="B84" t="s">
+        <v>269</v>
+      </c>
+      <c r="C84" t="s">
+        <v>285</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="2"/>
+        <v>i18n.Fehler_PLZ</v>
+      </c>
+      <c r="E84" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Fehler_PLZ=PLZ nicht angegeben</v>
+      </c>
+      <c r="F84" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Fehler_PLZ=Zip Code is missing</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>306</v>
+      </c>
+      <c r="B85" t="s">
+        <v>270</v>
+      </c>
+      <c r="C85" t="s">
+        <v>286</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="2"/>
+        <v>i18n.Fehler_PLZ2</v>
+      </c>
+      <c r="E85" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Fehler_PLZ2=PLZ ist keine Zahl</v>
+      </c>
+      <c r="F85" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Fehler_PLZ2=Zip Code is not a number</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>307</v>
+      </c>
+      <c r="B86" t="s">
+        <v>271</v>
+      </c>
+      <c r="C86" t="s">
+        <v>287</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="2"/>
+        <v>i18n.Fehler_PLZ3</v>
+      </c>
+      <c r="E86" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Fehler_PLZ3=PLZ ist nicht gültig</v>
+      </c>
+      <c r="F86" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Fehler_PLZ3=Zip Code is not valid</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>308</v>
+      </c>
+      <c r="B87" t="s">
+        <v>272</v>
+      </c>
+      <c r="C87" t="s">
+        <v>288</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="2"/>
+        <v>i18n.Fehler_Ort</v>
+      </c>
+      <c r="E87" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Fehler_Ort=Ort nicht angegeben</v>
+      </c>
+      <c r="F87" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Fehler_Ort=City is missing</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>309</v>
+      </c>
+      <c r="B88" t="s">
+        <v>273</v>
+      </c>
+      <c r="C88" t="s">
+        <v>289</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="2"/>
+        <v>i18n.Fehler_Land</v>
+      </c>
+      <c r="E88" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Fehler_Land=Land nicht angegeben</v>
+      </c>
+      <c r="F88" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Fehler_Land=Country is missing</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>310</v>
+      </c>
+      <c r="B89" t="s">
+        <v>274</v>
+      </c>
+      <c r="C89" t="s">
+        <v>290</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="2"/>
+        <v>i18n.Fehler_Passwort</v>
+      </c>
+      <c r="E89" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Fehler_Passwort=Passwort nicht angegeben</v>
+      </c>
+      <c r="F89" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Fehler_Passwort=Password is missing</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>311</v>
+      </c>
+      <c r="B90" t="s">
+        <v>275</v>
+      </c>
+      <c r="C90" t="s">
+        <v>291</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="2"/>
+        <v>i18n.Fehler_Passwort2</v>
+      </c>
+      <c r="E90" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Fehler_Passwort2=Passwort braucht mindestens 6 Zeichen</v>
+      </c>
+      <c r="F90" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Fehler_Passwort2=Password requiers at least 6 characters</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>312</v>
+      </c>
+      <c r="B91" t="s">
+        <v>313</v>
+      </c>
+      <c r="C91" t="s">
+        <v>314</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="2"/>
+        <v>i18n.Fehler_Energieart</v>
+      </c>
+      <c r="E91" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Fehler_Energieart=Energieart nicht angegeben</v>
+      </c>
+      <c r="F91" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Fehler_Energieart=Energy kind is missing</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>315</v>
+      </c>
+      <c r="B92" t="s">
+        <v>316</v>
+      </c>
+      <c r="C92" t="s">
+        <v>317</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="2"/>
+        <v>i18n.Fehler_Energieart2</v>
+      </c>
+      <c r="E92" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Fehler_Energieart2=Energieart ist nicht gültig</v>
+      </c>
+      <c r="F92" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Fehler_Energieart2=Energy kind is not valid</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>318</v>
+      </c>
+      <c r="B93" t="s">
+        <v>319</v>
+      </c>
+      <c r="C93" t="s">
+        <v>320</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="2"/>
+        <v>i18n.Fehler_ZählerNr</v>
+      </c>
+      <c r="E93" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Fehler_ZählerNr=Zähler-Nr. ist nicht angegeben</v>
+      </c>
+      <c r="F93" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Fehler_ZählerNr=Meter-No. is missing</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>321</v>
+      </c>
+      <c r="B94" t="s">
+        <v>322</v>
+      </c>
+      <c r="C94" t="s">
+        <v>323</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="2"/>
+        <v>i18n.Fehler_Zuordnung</v>
+      </c>
+      <c r="E94" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Fehler_Zuordnung=Zähler ist keiner Entnahmestelle zugeordnet</v>
+      </c>
+      <c r="F94" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Fehler_Zuordnung=meter is not assigned to an property</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>325</v>
+      </c>
+      <c r="B95" t="s">
+        <v>324</v>
+      </c>
+      <c r="C95" t="s">
+        <v>326</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="2"/>
+        <v>i18n.Fehler_Messwert</v>
+      </c>
+      <c r="E95" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Fehler_Messwert=Messwert nicht angegeben</v>
+      </c>
+      <c r="F95" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Fehler_Messwert=Meter reading is missing</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>328</v>
+      </c>
+      <c r="B96" t="s">
+        <v>327</v>
+      </c>
+      <c r="C96" t="s">
+        <v>329</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="2"/>
+        <v>i18n.Fehler_Ablesedatum</v>
+      </c>
+      <c r="E96" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Fehler_Ablesedatum=Ablesedatum nicht angegeben</v>
+      </c>
+      <c r="F96" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Fehler_Ablesedatum=Date of reading is missing</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>331</v>
+      </c>
+      <c r="B97" t="s">
+        <v>330</v>
+      </c>
+      <c r="C97" t="s">
+        <v>332</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="2"/>
+        <v>i18n.Fehler_Messwert2</v>
+      </c>
+      <c r="E97" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Fehler_Messwert2=Messwert ist keine gültige Zahl / im falschem Format</v>
+      </c>
+      <c r="F97" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Fehler_Messwert2=Meter reading is not a number / not in a valid format</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>338</v>
+      </c>
+      <c r="B98" t="s">
+        <v>333</v>
+      </c>
+      <c r="C98" t="s">
+        <v>334</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="2"/>
+        <v>i18n.Fehler_Ablesedatum2</v>
+      </c>
+      <c r="E98" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Fehler_Ablesedatum2=Ablesedatum ist nicht im richtigen Format</v>
+      </c>
+      <c r="F98" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Fehler_Ablesedatum2=Date of reading is not in a valid dateformat</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>337</v>
+      </c>
+      <c r="B99" t="s">
+        <v>336</v>
+      </c>
+      <c r="C99" t="s">
+        <v>339</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="2"/>
+        <v>i18n.Fehler_Messwert3</v>
+      </c>
+      <c r="E99" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Fehler_Messwert3=Zum angegebene Datum ist bereits ein Messwert gepflegt</v>
+      </c>
+      <c r="F99" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Fehler_Messwert3=There already exists a reading at the date specified</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>344</v>
+      </c>
+      <c r="B100" t="s">
+        <v>340</v>
+      </c>
+      <c r="C100" t="s">
+        <v>341</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="2"/>
+        <v>i18n.Fehler_Messwert4</v>
+      </c>
+      <c r="E100" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Fehler_Messwert4=Der angegebene Messwert ist kleiner dem vorherigen</v>
+      </c>
+      <c r="F100" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Fehler_Messwert4=The reading is lower then the previous</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>345</v>
+      </c>
+      <c r="B101" t="s">
+        <v>342</v>
+      </c>
+      <c r="C101" t="s">
+        <v>343</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="2"/>
+        <v>i18n.Fehler_Messwert5</v>
+      </c>
+      <c r="E101" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Fehler_Messwert5=Der angegebene Messwert ist größer dem nachfolgenden</v>
+      </c>
+      <c r="F101" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Fehler_Messwert5=The reading is greater then the next</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>346</v>
+      </c>
+      <c r="B102" t="s">
+        <v>347</v>
+      </c>
+      <c r="C102" t="s">
+        <v>348</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="2"/>
+        <v>i18n.Fehler_DatumVon</v>
+      </c>
+      <c r="E102" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Fehler_DatumVon=Datum von kein gültiges Datum</v>
+      </c>
+      <c r="F102" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Fehler_DatumVon=Date from is not a valid date</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>349</v>
+      </c>
+      <c r="B103" t="s">
+        <v>350</v>
+      </c>
+      <c r="C103" t="s">
+        <v>351</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="2"/>
+        <v>i18n.Fehler_DatumBis</v>
+      </c>
+      <c r="E103" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Fehler_DatumBis=Datum bis kein gültiges Datum</v>
+      </c>
+      <c r="F103" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Fehler_DatumBis=Date to is not a valid date</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>352</v>
+      </c>
+      <c r="B104" t="s">
+        <v>353</v>
+      </c>
+      <c r="C104" t="s">
+        <v>354</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="2"/>
+        <v>i18n.Fehler_DatumVonBis</v>
+      </c>
+      <c r="E104" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Fehler_DatumVonBis=Datum bis muss größer Datum von sein</v>
+      </c>
+      <c r="F104" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Fehler_DatumVonBis=Date to has to be greater then date from</v>
       </c>
     </row>
   </sheetData>

--- a/Übersetzung.xlsx
+++ b/Übersetzung.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="385">
   <si>
     <t>Willkommen</t>
   </si>
@@ -1090,6 +1090,96 @@
   </si>
   <si>
     <t>Date to has to be greater then date from</t>
+  </si>
+  <si>
+    <t>Fehler_Passwort_alt</t>
+  </si>
+  <si>
+    <t>Altes Passwort nicht angegeben</t>
+  </si>
+  <si>
+    <t>Old password is missing</t>
+  </si>
+  <si>
+    <t>Fehler_Passwort_neu</t>
+  </si>
+  <si>
+    <t>Neues Passwort nicht angegeben</t>
+  </si>
+  <si>
+    <t>New password is missing</t>
+  </si>
+  <si>
+    <t>Fehler_Passwort_wiederholung</t>
+  </si>
+  <si>
+    <t>Wiederholung des neuen Passworts nicht angegeben</t>
+  </si>
+  <si>
+    <t>Fehler_Passwort_neu_wiederholung</t>
+  </si>
+  <si>
+    <t>Neues Passwort stimmt nicht mit Wiederholung überein.</t>
+  </si>
+  <si>
+    <t>Titel_Passwort</t>
+  </si>
+  <si>
+    <t>Passwort ändern</t>
+  </si>
+  <si>
+    <t>Change password</t>
+  </si>
+  <si>
+    <t>Passwort_alt</t>
+  </si>
+  <si>
+    <t>Passwort_neu</t>
+  </si>
+  <si>
+    <t>Passwort_wiederholung</t>
+  </si>
+  <si>
+    <t>Confirm password is missing</t>
+  </si>
+  <si>
+    <t>New password doesn't match with confirm</t>
+  </si>
+  <si>
+    <t>Old password</t>
+  </si>
+  <si>
+    <t>New password</t>
+  </si>
+  <si>
+    <t>Confirm password</t>
+  </si>
+  <si>
+    <t>Passwort wiederholen</t>
+  </si>
+  <si>
+    <t>Neues Passwort</t>
+  </si>
+  <si>
+    <t>Altes Passwort</t>
+  </si>
+  <si>
+    <t>Passwort_erfolgreich</t>
+  </si>
+  <si>
+    <t>Passwort wurde erfolgreich geändert</t>
+  </si>
+  <si>
+    <t>Password has been changed succesfully</t>
+  </si>
+  <si>
+    <t>Passwort_fehlgeschlagen</t>
+  </si>
+  <si>
+    <t>Fehler beim ändern des Passworts</t>
+  </si>
+  <si>
+    <t>Error changing the password</t>
   </si>
 </sst>
 </file>
@@ -1155,8 +1245,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A5:F104" totalsRowShown="0">
-  <autoFilter ref="A5:F104"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A5:F114" totalsRowShown="0">
+  <autoFilter ref="A5:F114"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Bezeichnung"/>
     <tableColumn id="3" name="DE"/>
@@ -1472,9 +1562,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F110" sqref="F110:F114"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3026,7 +3118,7 @@
         <v>276</v>
       </c>
       <c r="D73" t="str">
-        <f t="shared" ref="D73:D104" si="2">"i18n."&amp;A73</f>
+        <f t="shared" ref="D73:D108" si="2">"i18n."&amp;A73</f>
         <v>i18n.Fehler_Vorname</v>
       </c>
       <c r="E73" s="3" t="str">
@@ -3749,6 +3841,236 @@
       <c r="F104" s="3" t="str">
         <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
         <v>i18n.Fehler_DatumVonBis=Date to has to be greater then date from</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>355</v>
+      </c>
+      <c r="B105" t="s">
+        <v>356</v>
+      </c>
+      <c r="C105" t="s">
+        <v>357</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="2"/>
+        <v>i18n.Fehler_Passwort_alt</v>
+      </c>
+      <c r="E105" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Fehler_Passwort_alt=Altes Passwort nicht angegeben</v>
+      </c>
+      <c r="F105" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Fehler_Passwort_alt=Old password is missing</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>358</v>
+      </c>
+      <c r="B106" t="s">
+        <v>359</v>
+      </c>
+      <c r="C106" t="s">
+        <v>360</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="2"/>
+        <v>i18n.Fehler_Passwort_neu</v>
+      </c>
+      <c r="E106" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Fehler_Passwort_neu=Neues Passwort nicht angegeben</v>
+      </c>
+      <c r="F106" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Fehler_Passwort_neu=New password is missing</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>361</v>
+      </c>
+      <c r="B107" t="s">
+        <v>362</v>
+      </c>
+      <c r="C107" t="s">
+        <v>371</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="2"/>
+        <v>i18n.Fehler_Passwort_wiederholung</v>
+      </c>
+      <c r="E107" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Fehler_Passwort_wiederholung=Wiederholung des neuen Passworts nicht angegeben</v>
+      </c>
+      <c r="F107" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Fehler_Passwort_wiederholung=Confirm password is missing</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>363</v>
+      </c>
+      <c r="B108" t="s">
+        <v>364</v>
+      </c>
+      <c r="C108" t="s">
+        <v>372</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" si="2"/>
+        <v>i18n.Fehler_Passwort_neu_wiederholung</v>
+      </c>
+      <c r="E108" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Fehler_Passwort_neu_wiederholung=Neues Passwort stimmt nicht mit Wiederholung überein.</v>
+      </c>
+      <c r="F108" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Fehler_Passwort_neu_wiederholung=New password doesn't match with confirm</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>365</v>
+      </c>
+      <c r="B109" t="s">
+        <v>366</v>
+      </c>
+      <c r="C109" t="s">
+        <v>367</v>
+      </c>
+      <c r="D109" t="str">
+        <f>$A$2&amp;A109&amp;$B$2</f>
+        <v>&lt;fmt:message key="i18n.Titel_Passwort"/&gt;</v>
+      </c>
+      <c r="E109" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Titel_Passwort=Passwort ändern</v>
+      </c>
+      <c r="F109" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Titel_Passwort=Change password</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>368</v>
+      </c>
+      <c r="B110" t="s">
+        <v>378</v>
+      </c>
+      <c r="C110" t="s">
+        <v>373</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" ref="D110:D112" si="3">$A$2&amp;A110&amp;$B$2</f>
+        <v>&lt;fmt:message key="i18n.Passwort_alt"/&gt;</v>
+      </c>
+      <c r="E110" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Passwort_alt=Altes Passwort</v>
+      </c>
+      <c r="F110" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Passwort_alt=Old password</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>369</v>
+      </c>
+      <c r="B111" t="s">
+        <v>377</v>
+      </c>
+      <c r="C111" t="s">
+        <v>374</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;fmt:message key="i18n.Passwort_neu"/&gt;</v>
+      </c>
+      <c r="E111" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Passwort_neu=Neues Passwort</v>
+      </c>
+      <c r="F111" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Passwort_neu=New password</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>370</v>
+      </c>
+      <c r="B112" t="s">
+        <v>376</v>
+      </c>
+      <c r="C112" t="s">
+        <v>375</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;fmt:message key="i18n.Passwort_wiederholung"/&gt;</v>
+      </c>
+      <c r="E112" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Passwort_wiederholung=Passwort wiederholen</v>
+      </c>
+      <c r="F112" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Passwort_wiederholung=Confirm password</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>379</v>
+      </c>
+      <c r="B113" t="s">
+        <v>380</v>
+      </c>
+      <c r="C113" t="s">
+        <v>381</v>
+      </c>
+      <c r="D113" t="str">
+        <f>$A$2&amp;A113&amp;$B$2</f>
+        <v>&lt;fmt:message key="i18n.Passwort_erfolgreich"/&gt;</v>
+      </c>
+      <c r="E113" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Passwort_erfolgreich=Passwort wurde erfolgreich geändert</v>
+      </c>
+      <c r="F113" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Passwort_erfolgreich=Password has been changed succesfully</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>382</v>
+      </c>
+      <c r="B114" t="s">
+        <v>383</v>
+      </c>
+      <c r="C114" t="s">
+        <v>384</v>
+      </c>
+      <c r="D114" t="str">
+        <f>$A$2&amp;A114&amp;$B$2</f>
+        <v>&lt;fmt:message key="i18n.Passwort_fehlgeschlagen"/&gt;</v>
+      </c>
+      <c r="E114" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Passwort_fehlgeschlagen=Fehler beim ändern des Passworts</v>
+      </c>
+      <c r="F114" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Passwort_fehlgeschlagen=Error changing the password</v>
       </c>
     </row>
   </sheetData>

--- a/Übersetzung.xlsx
+++ b/Übersetzung.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="388">
   <si>
     <t>Willkommen</t>
   </si>
@@ -1180,6 +1180,15 @@
   </si>
   <si>
     <t>Error changing the password</t>
+  </si>
+  <si>
+    <t>Titel_Kundendaten_ändern</t>
+  </si>
+  <si>
+    <t>Kundendaten ändern</t>
+  </si>
+  <si>
+    <t>Change personal data</t>
   </si>
 </sst>
 </file>
@@ -1245,8 +1254,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A5:F114" totalsRowShown="0">
-  <autoFilter ref="A5:F114"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A5:F115" totalsRowShown="0">
+  <autoFilter ref="A5:F115"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Bezeichnung"/>
     <tableColumn id="3" name="DE"/>
@@ -1562,10 +1571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F110" sqref="F110:F114"/>
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4071,6 +4080,29 @@
       <c r="F114" s="3" t="str">
         <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
         <v>i18n.Passwort_fehlgeschlagen=Error changing the password</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>385</v>
+      </c>
+      <c r="B115" t="s">
+        <v>386</v>
+      </c>
+      <c r="C115" t="s">
+        <v>387</v>
+      </c>
+      <c r="D115" t="str">
+        <f>$A$2&amp;A115&amp;$B$2</f>
+        <v>&lt;fmt:message key="i18n.Titel_Kundendaten_ändern"/&gt;</v>
+      </c>
+      <c r="E115" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[DE]]</f>
+        <v>i18n.Titel_Kundendaten_ändern=Kundendaten ändern</v>
+      </c>
+      <c r="F115" s="3" t="str">
+        <f>$C$2&amp;Tabelle1[[#This Row],[Bezeichnung]]&amp;"="&amp;Tabelle1[[#This Row],[EN]]</f>
+        <v>i18n.Titel_Kundendaten_ändern=Change personal data</v>
       </c>
     </row>
   </sheetData>
